--- a/chapter3/invoice01.xlsx
+++ b/chapter3/invoice01.xlsx
@@ -8,7 +8,9 @@
   <sheets>
     <sheet name="請求書" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'請求書'!$A:$H</definedName>
+  </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -1353,24 +1355,24 @@
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C7:G7"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7479166666666667" right="0.7479166666666667" top="0.9840277777777778" bottom="0.9840277777777778" header="0.5118055555555556" footer="0.5118055555555556"/>
   <pageSetup orientation="portrait" paperSize="9" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
